--- a/关卡配置表.xlsx
+++ b/关卡配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Agent\LevelMake\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18DC691-5875-430F-AC18-F5EF36740F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EA4BF8-6457-44E4-887A-6DA325C5D51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35580" yWindow="2445" windowWidth="21390" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="73">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,14 +94,174 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[10,40]</t>
+    <t>[0,1]</t>
+  </si>
+  <si>
+    <t>[0,4]</t>
+  </si>
+  <si>
+    <t>match_num</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[0,1]</t>
-  </si>
-  <si>
-    <t>[0,4]</t>
+    <t>[10,15]</t>
+  </si>
+  <si>
+    <t>[10,15]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[15,20]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[100,100]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[20,50]</t>
+  </si>
+  <si>
+    <t>[20,50]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499]]</t>
+  </si>
+  <si>
+    <t>[[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,99,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,99],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499]]</t>
+  </si>
+  <si>
+    <t>[[499,499,499,499,499,499,499,499],[499,499,99,499,499,499,499,499],[499,499,499,499,99,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499]]</t>
+  </si>
+  <si>
+    <t>[[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,99],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,99,499,499,499,499,499,499],[499,99,499,499,499,499,499,99],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499]]</t>
+  </si>
+  <si>
+    <t>[[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,99,499],[499,499,99,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[99,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,99,499]]</t>
+  </si>
+  <si>
+    <t>[[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,99,499,499,99,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,99,499,499,99,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499]]</t>
+  </si>
+  <si>
+    <t>[[499,499,99,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,99,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,99,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,99],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499]]</t>
+  </si>
+  <si>
+    <t>[[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[1499,1499,1499,1499,1499,1499,1499,1499],[1499,1499,1499,1499,1499,1499,1499,1499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499]]</t>
+  </si>
+  <si>
+    <t>[[499,499,499,499,499,499,499,499],[499,1499,1499,499,499,499,499,499],[499,1499,1499,499,499,499,499,499],[499,1499,1499,499,499,499,499,499],[499,1499,1499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,1499,1499,499],[499,499,499,499,499,1499,1499,499],[499,499,499,499,499,1499,1499,499],[499,499,499,499,499,1499,1499,499],[499,499,499,499,499,499,499,499]]</t>
+  </si>
+  <si>
+    <t>[[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[1499,1499,499,499,499,499,499,499],[1499,1499,499,499,499,499,499,499],[499,499,1499,1499,499,499,499,499],[499,499,1499,1499,499,499,499,499],[499,499,499,499,1499,1499,499,499],[499,499,499,499,1499,1499,499,499],[499,499,499,499,499,499,1499,1499],[499,499,499,499,499,499,1499,1499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499]]</t>
+  </si>
+  <si>
+    <t>[[499,1499,1499,499,499,1499,1499,499],[499,1499,1499,499,499,1499,1499,499],[499,1499,1499,99,99,1499,1499,499],[499,1499,1499,1499,1499,1499,1499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,99,99,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499]]</t>
+  </si>
+  <si>
+    <t>[[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,99,499,499],[499,499,499,499,499,99,499,499],[499,499,499,499,499,499,499,499],[1499,1499,499,499,499,499,1499,1499],[499,1099,1099,499,499,1499,1499,499],[499,499,1499,1499,1499,1499,499,499],[499,499,499,1499,1499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499]]</t>
+  </si>
+  <si>
+    <t>[[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,1499,1499,499,499,499],[499,499,499,1499,1499,499,499,499],[499,499,499,1499,1499,499,499,499],[499,499,499,1499,1499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,1499,1499,499,499,499],[499,499,499,1499,1499,499,499,499],[499,499,499,1499,1499,499,499,499],[499,499,499,1499,1499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499]]</t>
+  </si>
+  <si>
+    <t>[[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,1499,1499,1499,1499,1499,1499,499],[499,1499,499,499,499,499,1499,499],[499,1499,499,499,499,499,1499,499],[499,1499,499,499,499,499,1499,499],[499,1499,499,499,499,499,1499,499],[499,1499,1499,1499,1499,1499,1499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499]]</t>
+  </si>
+  <si>
+    <t>[[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[1499,499,499,499,499,499,499,1499],[1499,1499,499,499,499,499,1499,1499],[1499,1499,499,499,499,499,1499,1499],[1499,499,499,499,499,499,499,1499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499]]</t>
+  </si>
+  <si>
+    <t>[[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[1499,1499,499,499,499,499,1499,1499],[1499,1499,499,499,499,499,1499,1499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[1499,1499,499,499,499,499,1499,1499],[1499,1499,499,499,499,499,1499,1499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499]]</t>
+  </si>
+  <si>
+    <t>[[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,504,504,504,504,499,499],[499,499,504,504,504,504,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,504,504,504,504,499,499],[499,499,504,504,504,504,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499]]</t>
+  </si>
+  <si>
+    <t>[[499,499,499,504,504,499,499,499],[499,499,499,504,504,499,499,499],[499,499,499,504,504,499,499,499],[499,499,499,504,504,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,504,504,499,499,499],[499,499,499,504,504,499,499,499],[499,499,499,504,504,499,499,499],[499,499,499,504,504,499,499,499]]</t>
+  </si>
+  <si>
+    <t>[[499,499,499,499,499,504,504,504],[499,499,499,499,499,499,504,504],[499,499,499,499,499,499,499,504],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,504],[499,499,499,499,499,499,504,504],[499,499,499,499,499,504,504,504]]</t>
+  </si>
+  <si>
+    <t>[[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,504,504,504,504,504,504,499],[499,504,499,499,499,499,504,499],[499,504,499,499,499,499,504,499],[499,504,499,499,499,499,504,499],[499,504,499,499,499,499,504,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499]]</t>
+  </si>
+  <si>
+    <t>[[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,504,504,504,504,499,499],[499,499,504,504,504,504,499,499],[499,499,499,504,504,499,499,499],[499,499,499,504,504,499,499,499],[499,499,499,504,504,499,499,499]]</t>
+  </si>
+  <si>
+    <t>[[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[505,505,505,505,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,505,505,505,505],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499]]</t>
+  </si>
+  <si>
+    <t>[[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,505,499,499,505,499,499],[499,499,505,499,499,505,499,499],[499,499,505,499,499,505,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,505,499,499,505,499,499],[499,499,505,499,499,505,499,499],[499,499,505,499,499,505,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499]]</t>
+  </si>
+  <si>
+    <t>[[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,505,505,499,499,499],[499,499,499,505,505,499,499,499],[499,499,499,505,505,499,499,499],[499,499,499,505,505,499,499,499],[499,499,499,505,505,499,499,499],[499,499,499,505,505,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499]]</t>
+  </si>
+  <si>
+    <t>[[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,504,504,499,499,499],[499,499,504,504,504,504,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,504,504,504,504,499,499],[499,499,499,504,504,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499]]</t>
+  </si>
+  <si>
+    <t>[[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,501,499,499,499,499],[499,499,499,501,499,499,499,499],[499,499,499,501,499,499,499,499],[499,499,499,501,499,499,499,499],[499,499,499,501,499,499,499,499],[499,499,499,501,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499]]</t>
+  </si>
+  <si>
+    <t>[[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,501,499,499,499],[499,499,499,501,501,499,499,499],[499,499,499,499,501,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,501,499,499,499],[499,499,499,501,501,499,499,499],[499,499,499,499,501,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499]]</t>
+  </si>
+  <si>
+    <t>[[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,501,501,501,501,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499]]</t>
+  </si>
+  <si>
+    <t>[[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,501,501,499,499],[499,499,499,499,499,501,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,501,501,499,499,499,499],[499,499,501,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499]]</t>
+  </si>
+  <si>
+    <t>[[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,501,501],[499,499,499,499,499,499,501,501],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[501,501,499,499,499,499,499,499],[501,501,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499]]</t>
+  </si>
+  <si>
+    <t>[[499,499,499,501,501,499,499,499],[499,499,499,501,501,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,501,501,499,499,499],[499,499,499,501,501,499,499,499]]</t>
+  </si>
+  <si>
+    <t>[[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,501,499,499],[499,499,499,499,499,501,499,499],[499,499,499,499,499,501,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,501,499,499,499,499,499],[499,499,501,499,499,499,499,499],[499,499,501,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499]]</t>
+  </si>
+  <si>
+    <t>[[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[501,501,499,499,499,499,501,501],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[501,501,499,499,499,499,501,501],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499]]</t>
+  </si>
+  <si>
+    <t>[[499,499,499,499,499,499,499,499],[499,5499,5499,5499,499,499,499,499],[499,5499,5099,5499,499,499,499,499],[499,5499,5499,5499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,5499,5499,5499,499],[499,499,499,499,5499,5099,5499,499],[499,499,499,499,5499,5499,5499,499],[499,499,499,499,499,499,499,499]]</t>
+  </si>
+  <si>
+    <t>[[499,499,99,499,499,499,499,499],[499,499,499,499,499,99,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,5499,5499,5499,5499,499,499],[499,499,5499,5499,5499,5499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,5499,5499,5499,5499,499,499],[499,499,5499,5499,5499,5499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499]]</t>
+  </si>
+  <si>
+    <t>[[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[5499,5499,5499,499,499,499,499,499],[5099,5499,5499,499,499,499,499,5099],[5099,5499,5499,499,499,499,499,5099],[5499,5499,5499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499]]</t>
+  </si>
+  <si>
+    <t>[[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[5499,5499,499,499,499,499,5499,5499],[5499,5099,499,499,499,499,5099,5499],[5499,5099,499,499,499,499,5099,5499],[5499,5499,499,499,499,499,5499,5499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499]]</t>
+  </si>
+  <si>
+    <t>[[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,99,499,499,99,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,99,99,499,499,499],[499,5499,5499,5499,5499,5499,5499,499]]</t>
+  </si>
+  <si>
+    <t>[[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[5499,499,499,499,499,499,499,5499],[5499,499,499,499,499,499,499,5499],[5499,499,499,499,499,499,499,5499],[5499,499,499,499,499,499,499,5499],[5499,499,499,499,499,499,499,5499],[5499,499,499,499,499,499,499,5499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499]]</t>
+  </si>
+  <si>
+    <t>[[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,99,499,499,99,499,499],[499,499,5499,5499,5499,5499,499,499],[499,499,5499,5499,5499,5499,499,499],[499,499,99,499,499,99,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499]]</t>
+  </si>
+  <si>
+    <t>[[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,99,5499,5499,5499,5499,99,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,99,5499,5499,5499,5499,99,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499]]</t>
+  </si>
+  <si>
+    <t>[[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,99,5499,5499,499,499,499],[499,99,5499,499,499,5499,499,499],[499,5499,499,499,499,499,5499,499],[499,5499,499,499,499,499,5499,499],[499,499,5499,499,499,5499,99,499],[499,499,499,5499,5499,99,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499],[499,499,499,499,499,499,499,499]]</t>
+  </si>
+  <si>
+    <t>[0.17,0.30]</t>
+  </si>
+  <si>
+    <t>[0.25,0.5]</t>
+  </si>
+  <si>
+    <t>[0,0.1]</t>
+  </si>
+  <si>
+    <t>[0.3,0.6]</t>
   </si>
 </sst>
 </file>
@@ -426,15 +586,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,13 +628,16 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -501,18 +664,21 @@
         <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -536,24 +702,27 @@
         <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -571,24 +740,27 @@
         <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -606,24 +778,27 @@
         <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
@@ -641,24 +816,27 @@
         <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="L6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
@@ -676,24 +854,27 @@
         <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="L7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -711,24 +892,27 @@
         <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="L8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -746,24 +930,27 @@
         <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="L9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
@@ -781,24 +968,27 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="L10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
@@ -816,7 +1006,1340 @@
         <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="L11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" t="s">
+        <v>71</v>
+      </c>
+      <c r="J18" t="s">
+        <v>72</v>
+      </c>
+      <c r="K18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" t="s">
+        <v>71</v>
+      </c>
+      <c r="J19" t="s">
+        <v>72</v>
+      </c>
+      <c r="K19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" t="s">
+        <v>71</v>
+      </c>
+      <c r="J20" t="s">
+        <v>72</v>
+      </c>
+      <c r="K20" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" t="s">
+        <v>71</v>
+      </c>
+      <c r="J21" t="s">
+        <v>72</v>
+      </c>
+      <c r="K21" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I22" t="s">
+        <v>71</v>
+      </c>
+      <c r="J22" t="s">
+        <v>72</v>
+      </c>
+      <c r="K22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" t="s">
+        <v>72</v>
+      </c>
+      <c r="K23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" t="s">
+        <v>70</v>
+      </c>
+      <c r="I24" t="s">
+        <v>71</v>
+      </c>
+      <c r="J24" t="s">
+        <v>72</v>
+      </c>
+      <c r="K24" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" t="s">
+        <v>70</v>
+      </c>
+      <c r="I25" t="s">
+        <v>71</v>
+      </c>
+      <c r="J25" t="s">
+        <v>72</v>
+      </c>
+      <c r="K25" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" t="s">
+        <v>70</v>
+      </c>
+      <c r="I26" t="s">
+        <v>71</v>
+      </c>
+      <c r="J26" t="s">
+        <v>72</v>
+      </c>
+      <c r="K26" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27" t="s">
+        <v>71</v>
+      </c>
+      <c r="J27" t="s">
+        <v>72</v>
+      </c>
+      <c r="K27" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I28" t="s">
+        <v>71</v>
+      </c>
+      <c r="J28" t="s">
+        <v>72</v>
+      </c>
+      <c r="K28" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" t="s">
+        <v>70</v>
+      </c>
+      <c r="I29" t="s">
+        <v>71</v>
+      </c>
+      <c r="J29" t="s">
+        <v>72</v>
+      </c>
+      <c r="K29" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30" t="s">
+        <v>71</v>
+      </c>
+      <c r="J30" t="s">
+        <v>72</v>
+      </c>
+      <c r="K30" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" t="s">
+        <v>70</v>
+      </c>
+      <c r="I31" t="s">
+        <v>71</v>
+      </c>
+      <c r="J31" t="s">
+        <v>72</v>
+      </c>
+      <c r="K31" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32" t="s">
+        <v>71</v>
+      </c>
+      <c r="J32" t="s">
+        <v>72</v>
+      </c>
+      <c r="K32" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" t="s">
+        <v>70</v>
+      </c>
+      <c r="I33" t="s">
+        <v>71</v>
+      </c>
+      <c r="J33" t="s">
+        <v>72</v>
+      </c>
+      <c r="K33" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" t="s">
+        <v>69</v>
+      </c>
+      <c r="G34" t="s">
+        <v>70</v>
+      </c>
+      <c r="H34" t="s">
+        <v>70</v>
+      </c>
+      <c r="I34" t="s">
+        <v>71</v>
+      </c>
+      <c r="J34" t="s">
+        <v>72</v>
+      </c>
+      <c r="K34" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35" t="s">
+        <v>70</v>
+      </c>
+      <c r="H35" t="s">
+        <v>70</v>
+      </c>
+      <c r="I35" t="s">
+        <v>71</v>
+      </c>
+      <c r="J35" t="s">
+        <v>72</v>
+      </c>
+      <c r="K35" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" t="s">
+        <v>70</v>
+      </c>
+      <c r="H36" t="s">
+        <v>70</v>
+      </c>
+      <c r="I36" t="s">
+        <v>71</v>
+      </c>
+      <c r="J36" t="s">
+        <v>72</v>
+      </c>
+      <c r="K36" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G37" t="s">
+        <v>70</v>
+      </c>
+      <c r="H37" t="s">
+        <v>70</v>
+      </c>
+      <c r="I37" t="s">
+        <v>71</v>
+      </c>
+      <c r="J37" t="s">
+        <v>72</v>
+      </c>
+      <c r="K37" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" t="s">
+        <v>69</v>
+      </c>
+      <c r="G38" t="s">
+        <v>70</v>
+      </c>
+      <c r="H38" t="s">
+        <v>70</v>
+      </c>
+      <c r="I38" t="s">
+        <v>71</v>
+      </c>
+      <c r="J38" t="s">
+        <v>72</v>
+      </c>
+      <c r="K38" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G39" t="s">
+        <v>70</v>
+      </c>
+      <c r="H39" t="s">
+        <v>70</v>
+      </c>
+      <c r="I39" t="s">
+        <v>71</v>
+      </c>
+      <c r="J39" t="s">
+        <v>72</v>
+      </c>
+      <c r="K39" t="s">
+        <v>25</v>
+      </c>
+      <c r="L39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" t="s">
+        <v>69</v>
+      </c>
+      <c r="G40" t="s">
+        <v>70</v>
+      </c>
+      <c r="H40" t="s">
+        <v>70</v>
+      </c>
+      <c r="I40" t="s">
+        <v>71</v>
+      </c>
+      <c r="J40" t="s">
+        <v>72</v>
+      </c>
+      <c r="K40" t="s">
+        <v>25</v>
+      </c>
+      <c r="L40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" t="s">
+        <v>69</v>
+      </c>
+      <c r="G41" t="s">
+        <v>70</v>
+      </c>
+      <c r="H41" t="s">
+        <v>70</v>
+      </c>
+      <c r="I41" t="s">
+        <v>71</v>
+      </c>
+      <c r="J41" t="s">
+        <v>72</v>
+      </c>
+      <c r="K41" t="s">
+        <v>25</v>
+      </c>
+      <c r="L41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H42" t="s">
+        <v>70</v>
+      </c>
+      <c r="I42" t="s">
+        <v>71</v>
+      </c>
+      <c r="J42" t="s">
+        <v>72</v>
+      </c>
+      <c r="K42" t="s">
+        <v>25</v>
+      </c>
+      <c r="L42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" t="s">
+        <v>69</v>
+      </c>
+      <c r="G43" t="s">
+        <v>70</v>
+      </c>
+      <c r="H43" t="s">
+        <v>70</v>
+      </c>
+      <c r="I43" t="s">
+        <v>71</v>
+      </c>
+      <c r="J43" t="s">
+        <v>72</v>
+      </c>
+      <c r="K43" t="s">
+        <v>25</v>
+      </c>
+      <c r="L43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" t="s">
+        <v>69</v>
+      </c>
+      <c r="G44" t="s">
+        <v>70</v>
+      </c>
+      <c r="H44" t="s">
+        <v>70</v>
+      </c>
+      <c r="I44" t="s">
+        <v>71</v>
+      </c>
+      <c r="J44" t="s">
+        <v>72</v>
+      </c>
+      <c r="K44" t="s">
+        <v>25</v>
+      </c>
+      <c r="L44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" t="s">
+        <v>69</v>
+      </c>
+      <c r="G45" t="s">
+        <v>70</v>
+      </c>
+      <c r="H45" t="s">
+        <v>70</v>
+      </c>
+      <c r="I45" t="s">
+        <v>71</v>
+      </c>
+      <c r="J45" t="s">
+        <v>72</v>
+      </c>
+      <c r="K45" t="s">
+        <v>25</v>
+      </c>
+      <c r="L45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" t="s">
+        <v>69</v>
+      </c>
+      <c r="G46" t="s">
+        <v>70</v>
+      </c>
+      <c r="H46" t="s">
+        <v>70</v>
+      </c>
+      <c r="I46" t="s">
+        <v>71</v>
+      </c>
+      <c r="J46" t="s">
+        <v>72</v>
+      </c>
+      <c r="K46" t="s">
+        <v>25</v>
+      </c>
+      <c r="L46" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
